--- a/Stückliste.xlsx
+++ b/Stückliste.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="20300" yWindow="460" windowWidth="18100" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Stückliste</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>Step Down Wandler</t>
+  </si>
+  <si>
+    <t>Bauteile für VL53L1X</t>
+  </si>
+  <si>
+    <t>Lidar Sensor</t>
+  </si>
+  <si>
+    <t>VL53L1X</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/stmicroelectronics/vl53l1cxv0fy-1/n-herungssensor-open-drain-lga/dp/2851946?st=VL53L1CXV0FY/1</t>
+  </si>
+  <si>
+    <t>Kondensator SMD</t>
+  </si>
+  <si>
+    <t>0.1μ &amp; 47μ 0603 Baureihe</t>
+  </si>
+  <si>
+    <t>Widerstand SMD</t>
+  </si>
+  <si>
+    <t>10kΩ 0603 Baureihe</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/te-connectivity/cpf-a-0603b10ke1/d-nnschichtwiderstand-10k-0-1/dp/2483883?st=Widerstand%20smd%2010k%200603</t>
+  </si>
+  <si>
+    <t>RJ45 Verbinder</t>
+  </si>
+  <si>
+    <t>SI-60002-F</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/stewart-connector/si-60002-f/kupplung-10-100base-ethernet/dp/1137981?st=buchse%207%20polig</t>
   </si>
 </sst>
 </file>
@@ -123,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +195,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,13 +224,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,15 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -503,7 +548,7 @@
       </c>
       <c r="J3" s="5">
         <f>SUM(D:D)</f>
-        <v>75</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -545,89 +590,150 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stückliste.xlsx
+++ b/Stückliste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="460" windowWidth="18100" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Stückliste.xlsx
+++ b/Stückliste.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Stückliste</t>
   </si>
@@ -68,12 +68,6 @@
     <t>A4988</t>
   </si>
   <si>
-    <t>Schrittmotor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servo Motor 180° </t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
@@ -98,15 +92,6 @@
     <t>https://www.mouser.de/ProductDetail/Renesas-Intersil/ISL29501IRZ-T7A?qs=sGAEpiMZZMsg%252bek5lc7F5kbDKPC%2fNkhbRfkwaIIkvEA%3d</t>
   </si>
   <si>
-    <t>https://www.amazon.de/AZDelivery-Schritt-komplett-Stiftleisten-Kühlkörper/dp/B01N9QOJ99/ref=sr_1_12?ie=UTF8&amp;qid=1539776886&amp;sr=8-12&amp;keywords=A4988&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Sopear-Servomotor-Upgrade-Modell-High-Speed-Hubschrauber/dp/B01JR50FZI/ref=sr_1_1_sspa?ie=UTF8&amp;qid=1539780176&amp;sr=8-1-spons&amp;keywords=servomotor&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Quimat-Schrittmotor-Bipolar-Stecker-Halterung/dp/B06XRCNBMY/ref=sr_1_2_sspa?ie=UTF8&amp;qid=1539780359&amp;sr=8-2-spons&amp;keywords=nema+17&amp;psc=1</t>
-  </si>
-  <si>
     <t>Gesamtpreis</t>
   </si>
   <si>
@@ -116,40 +101,34 @@
     <t>Step Down Wandler</t>
   </si>
   <si>
-    <t>Bauteile für VL53L1X</t>
-  </si>
-  <si>
-    <t>Lidar Sensor</t>
-  </si>
-  <si>
-    <t>VL53L1X</t>
-  </si>
-  <si>
-    <t>https://de.farnell.com/stmicroelectronics/vl53l1cxv0fy-1/n-herungssensor-open-drain-lga/dp/2851946?st=VL53L1CXV0FY/1</t>
-  </si>
-  <si>
-    <t>Kondensator SMD</t>
-  </si>
-  <si>
-    <t>0.1μ &amp; 47μ 0603 Baureihe</t>
-  </si>
-  <si>
-    <t>Widerstand SMD</t>
-  </si>
-  <si>
-    <t>10kΩ 0603 Baureihe</t>
-  </si>
-  <si>
-    <t>https://de.farnell.com/te-connectivity/cpf-a-0603b10ke1/d-nnschichtwiderstand-10k-0-1/dp/2483883?st=Widerstand%20smd%2010k%200603</t>
-  </si>
-  <si>
-    <t>RJ45 Verbinder</t>
-  </si>
-  <si>
-    <t>SI-60002-F</t>
-  </si>
-  <si>
-    <t>https://de.farnell.com/stewart-connector/si-60002-f/kupplung-10-100base-ethernet/dp/1137981?st=buchse%207%20polig</t>
+    <t>Schrittmotor Basis</t>
+  </si>
+  <si>
+    <t>Schrittmotor Kippen</t>
+  </si>
+  <si>
+    <t>Nema 11</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/Pololu-Stepper-Motor-NEMA-11-Bipolar-200-Steps-Rev-2832mm-38V-067-A-Phase</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/Pololu-Stepper-Motor-NEMA-17-Unipolar-Bipolar-200-Steps-Rev-4248mm-4V-12-A-Phase</t>
+  </si>
+  <si>
+    <t>LIDAR Sensor</t>
+  </si>
+  <si>
+    <t>TF Mini</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/Seeed-Studio-Grove-TF-Mini-LiDAR-ToF-Time-of-Flight</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/A4988-StepStick-Compatible-Stepper-Motor-Driver-fuer-3D-Printer</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/10mm-Lichtschranke-Photoelectric-Infrarot-Zaehler-Counter-Sensor-Modul</t>
   </si>
 </sst>
 </file>
@@ -159,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,13 +174,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,14 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,11 +515,11 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5">
         <f>SUM(D:D)</f>
-        <v>88.75</v>
+        <v>122.47000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -558,182 +529,141 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6.31</v>
+      <c r="D10" s="5">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
+        <f>3*2.98</f>
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C17" r:id="rId2"/>
-    <hyperlink ref="C20" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
